--- a/Test Data/ParaBank.xlsx
+++ b/Test Data/ParaBank.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PREDATOR\eclipse-workspace\BasheerTestFramework\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FE792C-CF1F-4844-AF1B-F593BF53B3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4EF0A0-033B-4204-A34D-C0D4DCB1CC8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7680" yWindow="3084" windowWidth="7680" windowHeight="3084" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Register ParaBank</t>
   </si>
@@ -93,13 +99,13 @@
     <t>ZipCode</t>
   </si>
   <si>
-    <t>Register ParaBank1</t>
-  </si>
-  <si>
-    <t>Basheer6</t>
-  </si>
-  <si>
-    <t>Basheer7</t>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Sprint3</t>
+  </si>
+  <si>
+    <t>Basheer10</t>
   </si>
 </sst>
 </file>
@@ -419,132 +425,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
+      <c r="N2" t="str">
+        <f>M2&amp;"|"&amp;L2</f>
+        <v>Boss123$|Boss123$</v>
       </c>
     </row>
   </sheetData>
